--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/35_Gümüşhane_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/35_Gümüşhane_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B4391D3-B245-4E08-A8BC-64F4DC98CABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9C83F3F-47A0-4887-880E-E33624FE419E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="672" xr2:uid="{DDED633C-690A-48C7-B617-A3BF213A6DAD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="672" xr2:uid="{3285B6C4-2CD2-49A8-A4E8-BCFD1A7825DC}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -937,13 +937,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{7198474E-9B47-4682-8FB8-3CAC6E6D2AF5}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{0577A611-D9F8-4D42-9F7F-BE764B53CC07}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{F917A041-F20A-4847-9A6D-00B9EC6E7ADF}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{B08D0EF6-1CE5-4F72-BEB1-028DAE88DDB0}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{29A21F2B-D98D-4A47-B356-B61E25FE68D0}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{271E41F5-673D-4731-8DFF-072E89A16B32}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{908336E2-6D2D-4F1A-918C-25DB89D86455}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{2BDD7FF2-E646-449C-9957-508E794C39F4}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{1BC21EFC-D0E3-443F-976B-34C5A92B2476}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{D6E15EAA-91A0-4DE3-B080-DDFA946A70BB}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{5EB11FB5-A99A-49BD-8892-298E9D5B96A7}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{AB73777A-97A5-4254-B59C-19E8F7FE0C47}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{D6F29A17-B38D-41A2-9E8D-BFB1D8E33DFA}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{4E6AF417-E167-4FF2-A83D-18D9528D1473}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1313,7 +1313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB39E15-D23E-46A0-9539-B17808985A2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D536E53-25E2-4ABD-8BA3-38ED66DE1235}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2538,18 +2538,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C67250B2-48F6-4AC7-B5BD-B0E8904F2E1C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0942596B-FF10-43BA-8923-DE2F14D4685A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F7980C7E-7DC2-494D-B132-4C90187269B3}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BC965236-63A2-4D5D-AC1D-0A60F0194C71}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CA724968-2A7F-4BA7-801C-149BD9F0C093}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0CF10D7C-DEE7-4381-A674-D17B23D2A75C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5DD9FEB1-B9DA-4A4E-BB43-AA97475C95D4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CA61E964-8816-4CD4-907E-A7013B0FBC2E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{54CD9B38-3F67-4F75-977A-7C8006BF8714}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2B1364C0-B800-415B-AF68-53418DA1A3D7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DE6409A7-CAD0-4726-B989-C7BE86AD1C10}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2B67E690-FCEA-4A0D-B1CD-EF81A5CA9101}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{623E296E-2ECC-4A02-81D7-1CC8DCAA24EF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{74B5B789-73A8-4FE2-ABD8-12055D1CACF2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5C6681D6-009C-4E82-896A-49DE0D7AA8EB}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FAC01314-A081-431B-B8C7-2910841A67FB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{470D80DB-6030-4BD1-9440-D844B07C59E4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{17A9A096-9BAD-4F47-9395-093839B056BB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4E65DF71-C8A4-491C-A3A0-A10F5573FF8B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B794141E-280A-42D8-9D35-BB9CA6105593}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C711AD47-0AF8-4CD7-A8FB-48E9CB8F87C9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FD95DC74-A894-4310-BC37-4076E2B86A1B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{685943D2-00DB-49F7-8D4A-5D6066BF8715}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B76C3671-BC9C-4C2E-A2B6-A1EADEEE8B58}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2562,7 +2562,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3005879-79F9-4E04-B63E-1CE59FA37EA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7077E7CE-00CF-418F-9CB1-C0D1D4B7A951}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3772,18 +3772,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DA289D9A-D035-4AEF-A301-D500E46DAC3E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5A17CA47-12DC-4AD5-BB23-465B4000CF61}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{278250BD-734C-4A7E-9BC6-835384F47B7F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{54F59758-530D-439E-A1DC-84006B50CB0B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9B57903B-E931-4C18-9821-1506FF1F4D66}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{50AE0C00-031F-4FEF-B014-719FE7892920}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9AF8AFDA-8A2C-4095-80E0-4D9E3FFE3E4D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0A32E2CC-E8D6-4B4D-8BD3-BD5124A12BA6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EEE839BE-1B93-410D-A9A7-6DBD863BCB4F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4F0E34A9-A129-423F-A55D-329DE9E9DD8E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A4279413-D308-4A40-AEA1-43ABD4254AB9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6D2169DA-F824-4211-8887-0FF1E6C1AB61}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{34F2F0C3-FB90-4B3E-A018-C3790CCCD2BB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{77A2688B-3E6F-4CF7-ABB9-D0E2755495C6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2042D069-CE5D-4310-8A38-8D086AD5A3FB}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{29A7F971-2AB0-42D0-B049-DF95C0229AD2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E5F47DCA-C506-42E8-B65D-614BF70ACF8F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{42C6B209-1B3B-4C17-897D-6D89AA9741A0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BC1D5289-4EC6-4527-98AF-AA14B019FCE8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B1C4A6F3-53CA-49A7-A4C4-3914F8702B79}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EAA62C02-7EA3-43A6-B8BF-CD04CA983C4E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E232AADA-4379-4A91-AE69-A79402F92463}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7C64617F-C48C-4B0A-8144-A798537412E6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{54D33F22-FBFD-48E9-9282-CE913EFF4BAD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3796,7 +3796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575E5F07-78A9-4928-AB35-A597DB1BCD80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43E930E-9B6D-4F22-B7C6-E1708158AAC7}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -5002,18 +5002,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{19F97436-AD5B-4EA7-9408-2DEC9E6FE426}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EF4FD0E2-C74C-4B9B-9D59-9AFDF6FB120C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{742091BE-D3E0-4684-A73D-9CA7340F94F9}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F349FA67-F7D0-45FF-A26F-C619C6194487}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D148A175-B806-4EFC-9B1C-CF757D8AE26E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{981425D4-7492-417F-B860-20999F2870A2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E99A5BCF-23EF-4A95-A835-35FB1F9E2ACE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{79AD4341-6B03-434F-8E0A-3C52F519DF06}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6C7D8580-8A87-43D9-97DC-EF76E8E3E53F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B5AFE637-FF69-4251-BC3E-120B44066860}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F38A11AF-8CF5-4EE1-AF2B-0BA1151A4FAB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9F0B58AC-C8C2-416F-BE94-9F39A9675D8C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{28322ACC-7345-41C9-8D9C-41D24BE21E9F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2D0FD351-0B73-4995-AE76-A9B044AA4A9A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CE0E7464-D5A4-422B-AFE3-3A86127C8447}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0DE6AB69-E739-4CA2-B015-CDB58C75FEB5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EC017234-3C54-417D-9FC1-442619F449BB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F162B4AC-6CC7-4559-A29E-C6F698F5B73D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A4DE26A3-2AFB-4129-9811-8F5BB8CBBC0D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E0E9D437-3948-4C6F-BC17-30F701378747}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{63E8BD91-BF77-41A2-AF55-267A52EF0A67}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6D7A67F3-782D-4D77-86AB-089B4EABCABA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6BA60AF4-7E08-4C96-B4BB-EC434712BEB8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4AA6D6C0-0034-498F-BC0A-22DB2696BC09}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5026,7 +5026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73E78F5-73C0-42AD-8E2A-BE9C7BF16AA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08E4A7B-67DA-4D98-9208-91A330532D0A}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6228,18 +6228,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6738A9D8-BDC6-49DE-B5B9-DE85024AAD9D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C91D2496-3BD0-4379-85F0-CF65BC315400}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2C2FE049-6797-4B12-956F-8DA2C0BC45E5}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{91F9BC93-81A0-4A58-A13F-41C10B7A3959}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D79F1DC3-CD3A-4816-A096-4AB43B4CAF4F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E27D013D-DB34-494F-B101-15B514845495}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{74FAD9A3-356B-43C4-AF04-D0FCEA1FB895}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D227A07D-A600-4F96-AF80-BA8DD57B5347}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{935E6E85-F546-4B55-BA1F-4EC3D0CF404B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CDD8A5B2-AE7B-4EC2-AC74-3CBDA0DC9CDA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2568043E-B613-4253-9569-CF18725E2366}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E8618E5F-FEFC-4C87-A930-EA0BDFAD1F7B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{370239E7-6EC3-482B-A96F-9C1B14C41D0A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{279A0466-273C-48AA-A27E-7F07110BDF7D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2304C517-1583-4822-83E9-74DAE1A34ABE}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E2A65A17-FB68-40CC-B27A-8CA073F6B757}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FA7253A6-5240-4AEB-8D45-34276192189B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{70B77E53-5A44-400B-AB56-43EDFA62B188}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{14227E54-1548-4B60-859B-D54EDC44EF78}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E30589E9-C309-4956-9F7D-B8251C4A572A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5344DBCA-7143-4045-9CA5-49CA1F75B154}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D5B54E2F-5A3D-44E4-8677-CF07174979C7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{59C7F07C-D921-4FFD-BF27-F6AE0F61E1D4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8EE62C65-E0AD-431D-9AAE-59AA75D5DA5C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6252,7 +6252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C80A2C3-C03A-417F-A563-F2453D92B410}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D091F7-BD9F-4236-9BFE-D9067361B2B1}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -7474,18 +7474,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{58A2183F-9F8C-4232-9F8F-47120D708A83}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6C7558F6-77A4-485D-AA41-A7F0BCC14A10}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4A30246E-BE28-4808-9335-6836438E6FA2}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8D3BAA10-62D5-4B49-B039-00A98487B57B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{78563C07-BD2E-4F29-A6E2-5CFF303CE30A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A72D1CE6-E0E2-402D-9B11-E7760CEC9482}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{00C3247F-AE79-4B72-B109-AC743C28D3DE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{29D701F4-A012-4721-986B-DF455BA05F7C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0C2B8AC3-FC12-42F6-B904-AFC5AF9A32E9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A94D37CB-86EE-4A4B-8FF7-ECEBB8332BE0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6015BA66-CCFF-4A96-9E2A-4B6964EFA5F5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A4EB21AE-1427-4FF4-A4DD-57256BCAC361}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E7402A21-A242-4D83-8B2A-F49B7E9D2650}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FB0026F6-11DF-4D92-A347-4DC891975924}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4D6952F0-0582-4B57-8A05-B8A5A7DECEBD}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{750B6409-203D-4AC3-B65A-5BAC3E34B82F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C7041F30-7FD2-4FD2-ADC1-F64D303D4652}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F17562F1-0211-44AA-B4CA-4007254B65CA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{733DC554-5AD1-47C2-9DE1-1A6EECA8BCCF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A57AA720-10A5-4806-B411-E472669CC521}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{29C6AAB9-D218-4F2F-A66B-B24A8C88C6A1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{47B851CD-EAC8-4C2A-8AF2-8142AC665C8C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1839B1E1-D013-41CD-9BF3-FE877C4F735E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3FA96FD1-1E25-4055-A8E6-3E5A8DBD62CF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7498,7 +7498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8155A7F-44EF-4079-A799-EFFF32CFFEF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D27594-D489-4846-81FF-D91F4B4D9CF0}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -8720,18 +8720,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1E72E8ED-CCA1-4D5D-8C3D-D3CEB6AF6332}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8830115B-101F-4137-AE0F-C8F1A230F6B1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{61D5EAD4-1D6F-4589-8FC3-10BD3E45D70C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6EA8A43E-12A4-46E2-84BC-1202D9E9139C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C1A32567-1EDE-4458-AA55-3CEA2ACBEF89}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{137D145F-B7F3-48D7-8B6B-ED318EB38E5E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8F3C6B63-5589-4539-A760-734EFA6D6DF4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CA6B5806-731E-494F-A17B-0ECA972E6743}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{88C29D45-66BC-4D24-86F1-7AC9E79381C8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4B95BE31-340F-4C81-AD6F-8A70EAB1B162}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B63A65D3-DA33-46EB-BF37-8829F9AC19C1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{32DB8DA1-3DA7-433A-B4C5-E02B687B015F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{369F616C-B934-4D92-902D-8DCEE3B66565}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{55F91599-F5D7-4885-9D3F-9C163E1611E4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C61C6B3E-FF9A-43EC-85F8-97CC26B788C6}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1F94609B-523B-4032-9BFD-584AEB792BD0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C31C20FE-6F0B-4CA2-A039-7AB063D053B7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CE885D74-D5D8-451D-90ED-A86B49292A43}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{471AAB1F-3955-4F87-BAA4-30CE857F33BA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6B6900B5-23AC-4D53-ABCA-6A9C6A2B815E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E3E3EF0B-A006-4C5E-A535-EB1B70005D19}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{439C6D3B-A7BE-4EEB-B4D9-959BB0BBE918}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F33D0221-750D-4554-9172-E066157DA053}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{167F44A8-A455-4BD3-8F22-6D540F86FF35}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8744,7 +8744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28521648-2F40-493C-8796-A23A7D40BF94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0597FD-D0AB-4308-B7B1-7FE76399454C}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -9966,18 +9966,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{276C2362-5559-40E2-97ED-84F316EB0E96}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C9B5DA79-FB78-4293-8F5F-3C025AE7AC1B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{11B3CAB6-E2A0-4C35-8955-5C8FAF9D21CB}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{706EAD84-16B8-40E5-9C27-C6F93DFA0A84}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6803781A-8B87-4282-B93D-A6AAA7D13921}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{437C2623-29F7-4FA4-B507-191981132017}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DD89E92A-8B88-4528-84DF-05750E159217}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{38EAD1F3-A5E0-4560-9DEA-DA1CC1058B08}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6B136D79-E9DA-4AF6-8DF1-661D2C400088}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A9943578-E27D-48C7-A037-D2FCEFB92F0E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2146F0DC-58B1-44F1-8716-8D40E716E331}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{58A8B599-147B-43D7-A933-5825152EA088}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7CB95A4C-314D-4522-9B49-A276D732139F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A8950FBF-FA3E-4447-A766-EA5D1356FBCB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BD92B516-121D-4FC5-A869-6E0F98D94029}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5F67D181-8EDD-412A-AE33-270386994B43}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4EABEEA0-8DAD-4840-BE16-C5A17D9FEFEC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A5D48F03-90D3-49A8-833D-9B95482664AE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F7919F59-A0B1-407D-B0A5-0DA340004AA1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{79F01C67-921F-4ABC-84F0-E5D2D8F2C2F1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6AC37155-5B25-4F05-B4EE-48C148802ABB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BEAA3D93-2AB3-4876-A826-7D6F9D17428D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{91F436BE-C590-4F1F-B2D8-253C52764589}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{717E55B3-B2AB-4638-86D8-64517AC17F5E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9990,7 +9990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E347AE7C-8C86-467B-B02D-53555B149A2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72437C1C-372B-4AD3-9B3A-0DDE4F11BFF9}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -11212,18 +11212,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E0D21839-AC71-4AC6-8A0E-F53EC0F8B7C5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5DD38357-C4B8-4F6A-A9CF-07356BB5273E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BDC14323-6A48-4619-B19F-E1904F9DD13D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B22B7FEA-F069-4AEB-B21E-49016F4629FA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{613F806C-C29E-48FC-AD6B-9FB9C978CAD8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{494EF8C7-A294-4210-AD10-0E3BC70EF42F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4D67A9BD-0B68-4AC4-BDFB-63B72B245C6A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9351B80E-761A-43D3-B4F5-10A75527413D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7D5A3837-08DF-45A6-907E-0D47209FB988}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9291E150-2697-40D1-A626-08944034CF1F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{84A8DD2D-7806-4F60-AB5C-4290769B5265}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5C93B44D-4A78-4800-97D4-FC1DB2E668AC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ADA31AF6-6959-42FA-8A8C-886484091EED}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FB2178AA-D780-4B79-90CE-908D643E00A6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2A7E5DB4-3BC8-4502-A426-AFF8C775C849}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{52BFBB93-DD3C-4C72-8317-348A032AC9D6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D8405D74-7193-412A-ADB5-5FF22C5F14EB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B135B59C-9B3E-4ED9-A2CC-02019ED8D0FD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F417F76F-DDEE-4DB7-91F2-C2B001EE16DA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4E639012-1E69-4291-AF24-5FCCE8C18808}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6CB90650-CB04-4A86-B1B0-6FF54DA65FF5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{21A9AE47-96FF-482B-940E-4F70DA98DF82}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{48E6CE9F-986D-455F-B825-4388C963D58A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{912D2025-330D-426C-BCDB-FFC4C4C45E03}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11236,7 +11236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F62C252-C06F-48BE-A383-09FBD8C6E9E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C39C40-D887-4E00-91A7-827CC233BECF}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -12450,18 +12450,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0BA68B34-EE23-4EA6-88FA-7F8B54D46C6C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{932730E8-55FE-47B5-837E-4B76735E125D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{622FC99F-83DD-4BDD-B548-720371596C3A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CF3FA875-C7B1-42AA-BB83-0670C974A4D2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{40CF3BDF-9C45-4E3C-A09F-EC8DD7C2B734}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CBB28730-2A8B-4BBC-97D5-6377E7E1D2C3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C0F490F2-54E1-4A47-A3B4-2D30C5AD629E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{745D65A1-159B-4E64-83DF-262E1C4E1DAB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{136DAAE7-ABA3-4F8D-B284-C0F34C57E250}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7BF55681-066B-4841-AC81-275F3A9CE4E2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A6D184FE-3AB4-4A60-AD71-10526E06DD26}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A22ADF86-1C95-46A1-A365-A511BDE2DFC7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BFAEFA66-AE80-44FB-9243-8C6278E02B0B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A3C0F5B9-9DC7-4CB5-B2DA-5DD4015522F0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8C426597-A66E-485F-ADE4-49DC7AC467A1}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A4A5CC2C-DD91-4369-874D-9FBC47097F7F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{89739FE2-F93D-41A3-8C9C-DDFFC0BEFC4B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{19DE55AA-4119-4AC1-8E42-D335B970EB29}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3A843296-58EF-480C-BA71-821900839C9B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CF1E5BDF-E1B3-4A74-A3E4-D4A81164FD40}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{25A7EA1E-94AA-4D01-AB69-DB10DF12CEF1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D3ACE297-7BD9-48E2-B665-2AD915AEB5F8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DF80D9F6-2DB5-4C54-8E67-DFF1D94A0462}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{38F25111-1144-4F39-978A-B54D6FF5EC28}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12474,7 +12474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356EF460-164D-4272-A5BF-52ED5AED5671}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3AEB17-2612-4FD5-AD9B-A4079B439004}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -13688,18 +13688,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1A62A11E-7A52-4B56-BD67-097F6009F5DA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5A33DD33-E60B-454D-AA02-94378F993BDD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5D31437B-D704-49AD-A4BB-47D8418CD3E6}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{638C2A77-32BF-4571-A8A8-DEB6F94466D2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{96A76D3C-83F9-4A61-8730-7B8197AC3361}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A12A1B77-D34D-48E1-8772-F0FE0B3B875F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{432FFE1A-B5F8-4C5C-9C0F-35E09B865DAE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3A31F713-75F4-4862-8C37-D04F578D5860}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3309D994-464D-48CB-A5E4-637D9755FC16}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{565DCC10-9EEB-4A01-A4EF-4A0AEF8AEB6E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AC27F8C2-5276-42E3-8279-49BEAFFCBB8B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{67614E35-2280-468F-8987-37981E4532EC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BCF4267F-9205-4EA6-BBE2-A0B7DB456FBD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{74657CA2-00AF-40F4-BF28-942AE89DCDAA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{40913397-F756-4923-9EC5-CA0DDE45D343}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F3DDC261-EF57-4F84-BCA6-A9A21154E5DD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{57D3A578-9303-4C00-8FE5-505406E70A5E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{823EC100-1497-4CCD-B1FB-571061DEFE24}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A6DE5F0A-0713-4A66-BA8E-2732749BE533}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E9F00D08-E01A-4771-8B08-51102BC0D5C0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0E3000C8-7101-4C9B-B7C8-BB84341757AA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C2A82CBF-7A19-4630-B0DE-6DB9F5615436}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A3351A88-6855-4382-AAD7-188CFB37419B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{831B1A35-5CF9-4F0F-90FF-868525AC3267}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13712,7 +13712,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF781EDA-154E-4B4A-835B-A755D58B7928}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64EF15B7-C734-4652-971C-433AE165616A}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -14926,18 +14926,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8462977A-29D1-43A8-A73C-4F0DCCA0C95A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0FED2D9C-2236-4807-AB4F-4329612554D7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D2CD4426-7833-486B-8B1B-883EEE42ABAF}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4507384E-9E0F-4DE8-9F72-D8F0D8554A38}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B35B7C40-53F6-4A5A-81E9-14C3CBC10514}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{534985AD-A80E-4045-954B-15C279D0FAC9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{22C217BA-97C5-4EAE-9E87-C9B752779D75}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{41A60288-B027-4DED-9855-0EB39223997D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DFE33551-DBBA-4245-8B48-075D7F6DBC2F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5B65F983-24FC-453D-8F5B-643AFDD054B0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F23D324C-7AD9-4F29-A8CB-62CBC9C48150}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{16CB50C2-AC6B-4DC5-B240-7B9F3FC8D9CD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{83D3572A-5C73-48CC-A21E-4BD51BE0B9D3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{44D85C2D-64DF-455C-80C9-9F9B467D603C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6191DB30-BBA5-4A44-B888-0FC77E191999}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E9445574-4E76-41E6-88EB-95DEA38E27A7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E1A4CF0F-602A-4A53-9E28-A0DD5A66F9B5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F5DFBA56-67C2-4D1F-A9E2-1C1FCEF5813B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A6918B78-AA7F-4F04-A64F-381C8F497361}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6790339D-32E4-4E8C-8FEA-2B30EA376E40}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{875039E2-F43A-43E1-BEAA-FD42EF9742D8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BACFD548-05BA-47C0-9CC0-1C534D4D93E3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EEA1E6C2-F52D-4BC0-BB00-9C31984154D2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{61F86E65-2E68-42C5-AE23-CCFFC99A682A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14950,7 +14950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF59871-366F-4242-8000-AACA5B1137D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1763CCD3-EEC6-48C0-A485-230AF3A52162}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -16164,18 +16164,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{60800F22-69F6-4571-AEB9-90D0E146628F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{88CE37C9-B4D7-4397-9CDA-94061DB4A426}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C0CDF97E-21D5-4B20-88CD-F7EF4F00BAE4}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4726A1E0-EB66-4E26-A83E-1F6136798AB9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E763CB45-B1AC-4619-A1B9-CC961055031F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FDA95B26-6345-482A-98BD-73C1E9FCFFDD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FF129BD9-44D5-47A6-B398-26E719BFD516}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{849591CF-0406-45F7-A480-C82DE3A995A8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2A358404-50B8-40AE-A695-A4209DA0EBCB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FB00B29A-2103-49A9-9C01-7453E2D7F36E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{05A6B6A7-8E89-437D-8BD8-64A7571907B0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1E47D6F0-882B-42B0-8678-C0A41580CD8F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7B912F67-B20B-42C5-BE47-EF394BA37544}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{42688C91-8D91-4C26-B72A-B8A52E71C353}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3F82093C-0FC8-4164-9A37-4C9FBD3F23CB}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AD41FE39-5B6A-4DC1-A898-3599AA80F2F7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{59F79B76-10BC-4FF9-880C-8BF672647987}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3007828A-C168-4A7D-83DA-77527CD4EA41}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{66A0EE93-E91F-4321-8E9D-2346D009CBE8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AF6FA4E5-B9DB-4A13-BFD2-76CE26207CB8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8B1C9756-7BFE-4C61-9A4A-7CA64D27F52F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{21CADD0A-09CC-43D4-98C8-B889B6669B54}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{00EFFF8E-FF64-4FDB-ACA4-D1DE066A313D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DEF7C416-934C-4B44-9618-CC78C527835E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
